--- a/Tester/Template_Testdesign.xlsx
+++ b/Tester/Template_Testdesign.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLPM_Agile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLPM_Agile\GitHub\NHOM-5-PT14351-MOB-Agile-MOB104\Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCD21CA-B7D2-478A-9C8D-DC5EC5E59C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00883922-15B5-4D35-9D1C-98FCAAEF1EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="154">
   <si>
     <t>Requirement Level 1
 Yêu cầu cấp 1</t>
@@ -250,27 +250,6 @@
     <t>SNV04.7</t>
   </si>
   <si>
-    <t>SNV04.8</t>
-  </si>
-  <si>
-    <t>SNV04.9</t>
-  </si>
-  <si>
-    <t>SNV04.10</t>
-  </si>
-  <si>
-    <t>SNV04.11</t>
-  </si>
-  <si>
-    <t>SNV04.12</t>
-  </si>
-  <si>
-    <t>SNV04.13</t>
-  </si>
-  <si>
-    <t>SNV04.14</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -298,15 +277,6 @@
     <t>Check ô địa chỉ để trống</t>
   </si>
   <si>
-    <t>Check ô nhập lại pass không trùng với ô pass</t>
-  </si>
-  <si>
-    <t>Check ô nhập pass trùng với ô user</t>
-  </si>
-  <si>
-    <t>Check ô pass có kí tự đặc biệt</t>
-  </si>
-  <si>
     <t>Check đổi mật khẩu thành công</t>
   </si>
   <si>
@@ -346,12 +316,6 @@
     <t>check nút đã có tài khoản</t>
   </si>
   <si>
-    <t>Check sđt không đúng với sđt tài khoản</t>
-  </si>
-  <si>
-    <t>DMK02.11</t>
-  </si>
-  <si>
     <t>C01.1 - RQ01-Đăng nhập(ND)</t>
   </si>
   <si>
@@ -536,13 +500,16 @@
   </si>
   <si>
     <t>check nút xóa thành công</t>
+  </si>
+  <si>
+    <t>Check tên đăng nhập để trống</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -593,6 +560,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -709,13 +681,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -757,9 +723,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -799,6 +762,18 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -811,13 +786,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,24 +1074,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="10.28515625" style="6"/>
+    <col min="1" max="1" width="20.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="10.28515625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1">
@@ -1144,17 +1116,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="5"/>
+      <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1163,294 +1135,294 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="13"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="13"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1">
-      <c r="A14" s="38"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1">
-      <c r="A17" s="38"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="2"/>
@@ -1458,1122 +1430,1002 @@
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1">
-      <c r="A21" s="38"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1">
-      <c r="A23" s="38"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1">
-      <c r="A24" s="38"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="4"/>
+      <c r="E24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1">
-      <c r="A25" s="38"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="4"/>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="4"/>
+      <c r="E26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="24" customHeight="1">
-      <c r="A27" s="38"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="24" customHeight="1">
-      <c r="A28" s="38"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="24" customHeight="1">
-      <c r="A29" s="38"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="24" customHeight="1">
-      <c r="A30" s="38"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="24" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" ht="24" customHeight="1">
+      <c r="A32" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="24" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="24" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="24" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="24" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" ht="24" customHeight="1">
+      <c r="A37" s="32"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" ht="24" customHeight="1">
+      <c r="A38" s="33"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="24" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" ht="24" customHeight="1">
+      <c r="A40" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" ht="24" customHeight="1">
+      <c r="A41" s="32"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" ht="24" customHeight="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" ht="24" customHeight="1">
+      <c r="A43" s="32"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" ht="24" customHeight="1">
+      <c r="A44" s="32"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" ht="24" customHeight="1">
+      <c r="A45" s="32"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" ht="24" customHeight="1">
+      <c r="A46" s="32"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" ht="24" customHeight="1">
+      <c r="A47" s="32"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" ht="24" customHeight="1">
+      <c r="A48" s="28"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="1:7" ht="24" customHeight="1">
+      <c r="A49" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="30"/>
+    </row>
+    <row r="50" spans="1:7" ht="24" customHeight="1">
+      <c r="A50" s="35"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F50" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="30"/>
+    </row>
+    <row r="51" spans="1:7" ht="24" customHeight="1">
+      <c r="A51" s="35"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="30"/>
+    </row>
+    <row r="52" spans="1:7" ht="24" customHeight="1">
+      <c r="A52" s="35"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="24" customHeight="1">
-      <c r="A31" s="38"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="E52" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="30"/>
+    </row>
+    <row r="53" spans="1:7" ht="24" customHeight="1">
+      <c r="A53" s="35"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="30"/>
+    </row>
+    <row r="54" spans="1:7" ht="24" customHeight="1">
+      <c r="A54" s="35"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="24" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="24" customHeight="1">
-      <c r="A33" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="24" customHeight="1">
-      <c r="A34" s="38"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" ht="24" customHeight="1">
-      <c r="A35" s="38"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" ht="24" customHeight="1">
-      <c r="A36" s="38"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" ht="24" customHeight="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" ht="24" customHeight="1">
-      <c r="A38" s="38"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" ht="24" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" ht="24" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="24" customHeight="1">
-      <c r="A41" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="24" customHeight="1">
-      <c r="A42" s="38"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" ht="24" customHeight="1">
-      <c r="A43" s="38"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="24" customHeight="1">
-      <c r="A44" s="38"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" ht="24" customHeight="1">
-      <c r="A45" s="38"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" ht="24" customHeight="1">
-      <c r="A46" s="38"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" ht="24" customHeight="1">
-      <c r="A47" s="38"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" ht="24" customHeight="1">
-      <c r="A48" s="38"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7" ht="24" customHeight="1">
-      <c r="A49" s="38"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="1:7" ht="24" customHeight="1">
-      <c r="A50" s="38"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7" ht="24" customHeight="1">
-      <c r="A51" s="38"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" ht="24" customHeight="1">
-      <c r="A52" s="38"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" ht="24" customHeight="1">
-      <c r="A53" s="38"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7" ht="24" customHeight="1">
-      <c r="A54" s="38"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="8"/>
+      <c r="F54" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:7" ht="24" customHeight="1">
-      <c r="A55" s="38"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="8"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="30"/>
     </row>
     <row r="56" spans="1:7" ht="24" customHeight="1">
-      <c r="A56" s="31"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="28"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="30"/>
     </row>
     <row r="57" spans="1:7" ht="24" customHeight="1">
-      <c r="A57" s="33" t="s">
-        <v>103</v>
-      </c>
+      <c r="A57" s="29"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
-      <c r="D57" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="19" t="s">
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7" ht="24" customHeight="1">
+      <c r="A58" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F58" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7" ht="24" customHeight="1">
-      <c r="A58" s="34"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="19"/>
+      <c r="G58" s="30"/>
     </row>
     <row r="59" spans="1:7" ht="24" customHeight="1">
-      <c r="A59" s="34"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="19"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="30"/>
     </row>
     <row r="60" spans="1:7" ht="24" customHeight="1">
-      <c r="A60" s="34"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="19" t="s">
-        <v>109</v>
+      <c r="A60" s="35"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="30"/>
     </row>
     <row r="61" spans="1:7" ht="24" customHeight="1">
-      <c r="A61" s="34"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="19"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="30"/>
     </row>
     <row r="62" spans="1:7" ht="24" customHeight="1">
-      <c r="A62" s="34"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="19"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="30"/>
     </row>
     <row r="63" spans="1:7" ht="24" customHeight="1">
-      <c r="A63" s="34"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" s="19"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" ht="24" customHeight="1">
-      <c r="A64" s="35"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="19"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" ht="24" customHeight="1">
-      <c r="A65" s="32"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="23"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7" ht="24" customHeight="1">
-      <c r="A66" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
+      <c r="A66" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="B66" s="30"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="F66" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="19"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" ht="24" customHeight="1">
-      <c r="A67" s="34"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="19" t="s">
+      <c r="A67" s="35"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F67" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="19"/>
+      <c r="E67" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="30"/>
     </row>
     <row r="68" spans="1:7" ht="24" customHeight="1">
-      <c r="A68" s="34"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
+      <c r="A68" s="35"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="1:7" ht="24" customHeight="1">
+      <c r="A69" s="35"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F68" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" spans="1:7" ht="24" customHeight="1">
-      <c r="A69" s="34"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19" t="s">
+      <c r="E69" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="F69" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7" ht="24" customHeight="1">
+      <c r="A70" s="35"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="1:7" ht="24" customHeight="1">
-      <c r="A70" s="34"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
+      <c r="E70" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="17"/>
+    </row>
+    <row r="71" spans="1:7" ht="24" customHeight="1">
+      <c r="A71" s="35"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E71" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="1:7" ht="24" customHeight="1">
+      <c r="A72" s="36"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="19"/>
-    </row>
-    <row r="71" spans="1:7" ht="24" customHeight="1">
-      <c r="A71" s="34"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="20"/>
-    </row>
-    <row r="72" spans="1:7" ht="24" customHeight="1">
-      <c r="A72" s="35"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="20"/>
+      <c r="E72" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7" ht="24" customHeight="1">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:7" ht="24" customHeight="1">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="17"/>
+    </row>
+    <row r="75" spans="1:7" ht="24" customHeight="1">
+      <c r="A75" s="35"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="19" t="s">
+      <c r="F75" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:7" ht="24" customHeight="1">
+      <c r="A76" s="35"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E74" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="20"/>
-    </row>
-    <row r="75" spans="1:7" ht="24" customHeight="1">
-      <c r="A75" s="34"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
+      <c r="E76" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E75" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="1:7" ht="24" customHeight="1">
-      <c r="A76" s="34"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="19" t="s">
+      <c r="F76" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" spans="1:7" ht="24" customHeight="1">
+      <c r="A77" s="35"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="20"/>
-    </row>
-    <row r="77" spans="1:7" ht="24" customHeight="1">
-      <c r="A77" s="34"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="19" t="s">
+      <c r="E77" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="F77" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="17"/>
+    </row>
+    <row r="78" spans="1:7" ht="24" customHeight="1">
+      <c r="A78" s="35"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F77" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="20"/>
-    </row>
-    <row r="78" spans="1:7" ht="24" customHeight="1">
-      <c r="A78" s="34"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="19" t="s">
+      <c r="E78" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="20"/>
+      <c r="F78" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="17"/>
     </row>
     <row r="79" spans="1:7" ht="24" customHeight="1">
-      <c r="A79" s="34"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="19" t="s">
+      <c r="A79" s="35"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E79" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" s="20"/>
+      <c r="E79" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="17"/>
     </row>
     <row r="80" spans="1:7" ht="24" customHeight="1">
       <c r="A80" s="35"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="19" t="s">
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E80" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" s="20"/>
+      <c r="E80" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7" ht="24" customHeight="1">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" ht="24" customHeight="1">
-      <c r="A82" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" s="20" t="s">
+      <c r="A82" s="35"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" ht="24" customHeight="1">
+      <c r="A83" s="36"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="1:7" ht="24" customHeight="1">
+      <c r="A84" s="19"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="22"/>
+    </row>
+    <row r="85" spans="1:7" ht="24" customHeight="1">
+      <c r="A85" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F85" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="20"/>
-    </row>
-    <row r="83" spans="1:7" ht="24" customHeight="1">
-      <c r="A83" s="34"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F83" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" s="20"/>
-    </row>
-    <row r="84" spans="1:7" ht="24" customHeight="1">
-      <c r="A84" s="34"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" s="20"/>
-    </row>
-    <row r="85" spans="1:7" ht="24" customHeight="1">
-      <c r="A85" s="34"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="20"/>
+      <c r="G85" s="17"/>
     </row>
     <row r="86" spans="1:7" ht="24" customHeight="1">
-      <c r="A86" s="34"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="26" t="s">
+      <c r="A86" s="37"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="F86" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G86" s="20"/>
+      <c r="F86" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="17"/>
     </row>
     <row r="87" spans="1:7" ht="24" customHeight="1">
-      <c r="A87" s="34"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="26" t="s">
+      <c r="A87" s="37"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="20"/>
-    </row>
-    <row r="88" spans="1:7" ht="24" customHeight="1">
-      <c r="A88" s="34"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="26" t="s">
+      <c r="E87" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="E88" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F88" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G88" s="20"/>
-    </row>
-    <row r="89" spans="1:7" ht="24" customHeight="1">
-      <c r="A89" s="34"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F89" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" s="20"/>
-    </row>
-    <row r="90" spans="1:7" ht="24" customHeight="1">
-      <c r="A90" s="34"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F90" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" s="20"/>
-    </row>
-    <row r="91" spans="1:7" ht="24" customHeight="1">
-      <c r="A91" s="35"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" s="20"/>
-    </row>
-    <row r="92" spans="1:7" ht="24" customHeight="1">
-      <c r="A92" s="22"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="25"/>
-    </row>
-    <row r="93" spans="1:7" ht="24" customHeight="1">
-      <c r="A93" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93" s="20"/>
-    </row>
-    <row r="94" spans="1:7" ht="24" customHeight="1">
-      <c r="A94" s="36"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94" s="20"/>
-    </row>
-    <row r="95" spans="1:7" ht="24" customHeight="1">
-      <c r="A95" s="36"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G95" s="20"/>
+      <c r="F87" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A74:A83"/>
+    <mergeCell ref="A85:A87"/>
     <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A20:A31"/>
     <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A82:A91"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.2" right="0.19" top="0.34" bottom="0.35138888888888897" header="0.21" footer="0.17013888888888901"/>

--- a/Tester/Template_Testdesign.xlsx
+++ b/Tester/Template_Testdesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLPM_Agile\GitHub\NHOM-5-PT14351-MOB-Agile-MOB104\Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00883922-15B5-4D35-9D1C-98FCAAEF1EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF3140-AD80-467D-8EBE-689531DE95E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="152">
   <si>
     <t>Requirement Level 1
 Yêu cầu cấp 1</t>
@@ -491,12 +491,6 @@
   </si>
   <si>
     <t>XNV09.1</t>
-  </si>
-  <si>
-    <t>check nút hủy xóa</t>
-  </si>
-  <si>
-    <t>XNV09.2</t>
   </si>
   <si>
     <t>check nút xóa thành công</t>
@@ -765,6 +759,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -784,12 +784,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1074,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="24" customHeight="1"/>
@@ -1119,10 +1113,10 @@
       <c r="H1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="38"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="2"/>
@@ -1140,10 +1134,10 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="38"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2"/>
       <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
@@ -1156,10 +1150,10 @@
         <v>7</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="I3" s="38"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="2"/>
       <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
@@ -1173,10 +1167,10 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="38"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="2"/>
       <c r="C5" s="11"/>
       <c r="D5" s="2" t="s">
@@ -1189,10 +1183,10 @@
         <v>7</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="I5" s="38"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2"/>
       <c r="C6" s="11"/>
       <c r="D6" s="2" t="s">
@@ -1206,10 +1200,10 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="38"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="2"/>
       <c r="C7" s="11"/>
       <c r="D7" s="2" t="s">
@@ -1222,10 +1216,10 @@
         <v>7</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="I7" s="38"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="2"/>
       <c r="C8" s="11"/>
       <c r="D8" s="2" t="s">
@@ -1239,10 +1233,10 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="38"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2"/>
       <c r="C9" s="11"/>
       <c r="D9" s="2" t="s">
@@ -1255,10 +1249,10 @@
         <v>7</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="I9" s="38"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="2"/>
       <c r="C10" s="11"/>
       <c r="D10" s="2" t="s">
@@ -1272,10 +1266,10 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="38"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="2"/>
       <c r="C11" s="11"/>
       <c r="D11" s="2" t="s">
@@ -1289,10 +1283,10 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="38"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1">
-      <c r="A12" s="32"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2"/>
       <c r="C12" s="11"/>
       <c r="D12" s="2" t="s">
@@ -1306,10 +1300,10 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="38"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -1323,10 +1317,10 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="38"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
@@ -1340,10 +1334,10 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="38"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1">
-      <c r="A15" s="32"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -1357,10 +1351,10 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="38"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -1374,10 +1368,10 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="38"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -1391,10 +1385,10 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="38"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -1408,7 +1402,7 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="38"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1">
       <c r="A19" s="12"/>
@@ -1419,10 +1413,10 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="38"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="2"/>
@@ -1439,7 +1433,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
@@ -1454,7 +1448,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -1469,7 +1463,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1">
-      <c r="A23" s="32"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
@@ -1484,7 +1478,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -1499,7 +1493,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
@@ -1514,7 +1508,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1">
-      <c r="A26" s="32"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
@@ -1529,7 +1523,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="24" customHeight="1">
-      <c r="A27" s="32"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -1544,7 +1538,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="24" customHeight="1">
-      <c r="A28" s="32"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -1559,7 +1553,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="24" customHeight="1">
-      <c r="A29" s="32"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -1574,7 +1568,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="24" customHeight="1">
-      <c r="A30" s="32"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -1598,7 +1592,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="24" customHeight="1">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
@@ -1615,7 +1609,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="24" customHeight="1">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="2" t="s">
@@ -1630,7 +1624,7 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1">
-      <c r="A34" s="32"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="2" t="s">
@@ -1645,7 +1639,7 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="24" customHeight="1">
-      <c r="A35" s="32"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="2" t="s">
@@ -1660,7 +1654,7 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" ht="24" customHeight="1">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="2" t="s">
@@ -1675,7 +1669,7 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" ht="24" customHeight="1">
-      <c r="A37" s="32"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="2" t="s">
@@ -1690,7 +1684,7 @@
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1">
-      <c r="A38" s="33"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="2" t="s">
@@ -1714,7 +1708,7 @@
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" ht="24" customHeight="1">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="6"/>
@@ -1722,7 +1716,7 @@
       <c r="D40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="32" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -1731,13 +1725,13 @@
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" ht="24" customHeight="1">
-      <c r="A41" s="32"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="32" t="s">
         <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -1746,14 +1740,14 @@
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" ht="24" customHeight="1">
-      <c r="A42" s="32"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="39" t="s">
-        <v>153</v>
+      <c r="E42" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>7</v>
@@ -1761,13 +1755,13 @@
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" ht="24" customHeight="1">
-      <c r="A43" s="32"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="32" t="s">
         <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -1776,13 +1770,13 @@
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="24" customHeight="1">
-      <c r="A44" s="32"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -1791,13 +1785,13 @@
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" ht="24" customHeight="1">
-      <c r="A45" s="32"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="32" t="s">
         <v>71</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -1806,13 +1800,13 @@
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" ht="24" customHeight="1">
-      <c r="A46" s="32"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="32" t="s">
         <v>77</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -1821,13 +1815,13 @@
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" ht="24" customHeight="1">
-      <c r="A47" s="32"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="32" t="s">
         <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -1845,7 +1839,7 @@
       <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:7" ht="24" customHeight="1">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="30"/>
@@ -1862,7 +1856,7 @@
       <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7" ht="24" customHeight="1">
-      <c r="A50" s="35"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="30" t="s">
@@ -1877,7 +1871,7 @@
       <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:7" ht="24" customHeight="1">
-      <c r="A51" s="35"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="30" t="s">
@@ -1892,7 +1886,7 @@
       <c r="G51" s="30"/>
     </row>
     <row r="52" spans="1:7" ht="24" customHeight="1">
-      <c r="A52" s="35"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="30"/>
       <c r="C52" s="17"/>
       <c r="D52" s="30" t="s">
@@ -1907,7 +1901,7 @@
       <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7" ht="24" customHeight="1">
-      <c r="A53" s="35"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="30" t="s">
@@ -1922,7 +1916,7 @@
       <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7" ht="24" customHeight="1">
-      <c r="A54" s="35"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="30" t="s">
@@ -1937,7 +1931,7 @@
       <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:7" ht="24" customHeight="1">
-      <c r="A55" s="35"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="30" t="s">
@@ -1952,7 +1946,7 @@
       <c r="G55" s="30"/>
     </row>
     <row r="56" spans="1:7" ht="24" customHeight="1">
-      <c r="A56" s="36"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="30"/>
       <c r="C56" s="17"/>
       <c r="D56" s="30" t="s">
@@ -1976,7 +1970,7 @@
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7" ht="24" customHeight="1">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="36" t="s">
         <v>107</v>
       </c>
       <c r="B58" s="30"/>
@@ -1993,7 +1987,7 @@
       <c r="G58" s="30"/>
     </row>
     <row r="59" spans="1:7" ht="24" customHeight="1">
-      <c r="A59" s="35"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="30" t="s">
@@ -2008,7 +2002,7 @@
       <c r="G59" s="30"/>
     </row>
     <row r="60" spans="1:7" ht="24" customHeight="1">
-      <c r="A60" s="35"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="30" t="s">
@@ -2023,7 +2017,7 @@
       <c r="G60" s="30"/>
     </row>
     <row r="61" spans="1:7" ht="24" customHeight="1">
-      <c r="A61" s="35"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="30" t="s">
@@ -2038,7 +2032,7 @@
       <c r="G61" s="30"/>
     </row>
     <row r="62" spans="1:7" ht="24" customHeight="1">
-      <c r="A62" s="35"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="30" t="s">
@@ -2053,7 +2047,7 @@
       <c r="G62" s="30"/>
     </row>
     <row r="63" spans="1:7" ht="24" customHeight="1">
-      <c r="A63" s="35"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="30" t="s">
@@ -2068,7 +2062,7 @@
       <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" ht="24" customHeight="1">
-      <c r="A64" s="36"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="30" t="s">
@@ -2092,7 +2086,7 @@
       <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7" ht="24" customHeight="1">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="36" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="30"/>
@@ -2109,7 +2103,7 @@
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" ht="24" customHeight="1">
-      <c r="A67" s="35"/>
+      <c r="A67" s="37"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
       <c r="D67" s="30" t="s">
@@ -2124,7 +2118,7 @@
       <c r="G67" s="30"/>
     </row>
     <row r="68" spans="1:7" ht="24" customHeight="1">
-      <c r="A68" s="35"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="30" t="s">
@@ -2139,7 +2133,7 @@
       <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7" ht="24" customHeight="1">
-      <c r="A69" s="35"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="30" t="s">
@@ -2154,7 +2148,7 @@
       <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="24" customHeight="1">
-      <c r="A70" s="35"/>
+      <c r="A70" s="37"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="30" t="s">
@@ -2169,7 +2163,7 @@
       <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="24" customHeight="1">
-      <c r="A71" s="35"/>
+      <c r="A71" s="37"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="30" t="s">
@@ -2184,7 +2178,7 @@
       <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7" ht="24" customHeight="1">
-      <c r="A72" s="36"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="30" t="s">
@@ -2208,7 +2202,7 @@
       <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:7" ht="24" customHeight="1">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="36" t="s">
         <v>129</v>
       </c>
       <c r="B74" s="17"/>
@@ -2225,7 +2219,7 @@
       <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:7" ht="24" customHeight="1">
-      <c r="A75" s="35"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="23" t="s">
@@ -2240,7 +2234,7 @@
       <c r="G75" s="17"/>
     </row>
     <row r="76" spans="1:7" ht="24" customHeight="1">
-      <c r="A76" s="35"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="23" t="s">
@@ -2255,7 +2249,7 @@
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" ht="24" customHeight="1">
-      <c r="A77" s="35"/>
+      <c r="A77" s="37"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="23" t="s">
@@ -2270,7 +2264,7 @@
       <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7" ht="24" customHeight="1">
-      <c r="A78" s="35"/>
+      <c r="A78" s="37"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="23" t="s">
@@ -2285,7 +2279,7 @@
       <c r="G78" s="17"/>
     </row>
     <row r="79" spans="1:7" ht="24" customHeight="1">
-      <c r="A79" s="35"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="23" t="s">
@@ -2300,7 +2294,7 @@
       <c r="G79" s="17"/>
     </row>
     <row r="80" spans="1:7" ht="24" customHeight="1">
-      <c r="A80" s="35"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="23" t="s">
@@ -2315,7 +2309,7 @@
       <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7" ht="24" customHeight="1">
-      <c r="A81" s="35"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="23" t="s">
@@ -2330,7 +2324,7 @@
       <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" ht="24" customHeight="1">
-      <c r="A82" s="35"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="23" t="s">
@@ -2345,7 +2339,7 @@
       <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7" ht="24" customHeight="1">
-      <c r="A83" s="36"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="23" t="s">
@@ -2369,7 +2363,7 @@
       <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7" ht="24" customHeight="1">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="39" t="s">
         <v>147</v>
       </c>
       <c r="B85" s="17"/>
@@ -2386,7 +2380,7 @@
       <c r="G85" s="17"/>
     </row>
     <row r="86" spans="1:7" ht="24" customHeight="1">
-      <c r="A86" s="37"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="23" t="s">
@@ -2400,32 +2394,17 @@
       </c>
       <c r="G86" s="17"/>
     </row>
-    <row r="87" spans="1:7" ht="24" customHeight="1">
-      <c r="A87" s="37"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E87" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F87" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="17"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A74:A83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A66:A72"/>
     <mergeCell ref="A20:A30"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A74:A83"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A66:A72"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.2" right="0.19" top="0.34" bottom="0.35138888888888897" header="0.21" footer="0.17013888888888901"/>
